--- a/Project/Data/LevelDesign.xlsx
+++ b/Project/Data/LevelDesign.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArkHarKharon\source\repos\ArkHarKharon\Upgrade\Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A11B02-391E-4367-906C-416D08542659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3440514-7F23-4624-AC77-5FC64653DE6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="1884" windowWidth="12396" windowHeight="8964" xr2:uid="{2F51BC1A-11F1-499A-9A02-381ED3FCEAC9}"/>
+    <workbookView xWindow="12648" yWindow="1632" windowWidth="17280" windowHeight="8964" xr2:uid="{2F51BC1A-11F1-499A-9A02-381ED3FCEAC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Свободная клетка</t>
   </si>
   <si>
-    <t>Вражеская/союзная база</t>
-  </si>
-  <si>
     <t>Клетка стены</t>
   </si>
   <si>
@@ -75,17 +72,28 @@
     <t>s (start)</t>
   </si>
   <si>
-    <t>b (bot)</t>
+    <t>Узел перемещения ботов</t>
+  </si>
+  <si>
+    <t>k (knot)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -102,12 +110,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,6 +143,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -287,31 +295,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -324,12 +316,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -339,6 +331,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -653,293 +663,523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0A7EAE-0DB8-4E97-89D5-5FB3CDA6C6F3}">
-  <dimension ref="B1:R15"/>
+  <dimension ref="B1:AH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="15" width="2.77734375" customWidth="1"/>
-    <col min="16" max="16" width="8.77734375" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="19" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="19" width="2.77734375" customWidth="1"/>
+    <col min="32" max="32" width="3.21875" customWidth="1"/>
+    <col min="33" max="33" width="27.44140625" customWidth="1"/>
+    <col min="34" max="34" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="P2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="3"/>
-      <c r="C3" s="8"/>
+    <row r="1" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="3"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="10"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="2"/>
+      <c r="AF3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH3" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="3"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="2"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="22"/>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="5"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="3"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="25"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="2"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="5"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="3"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="16" t="s">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="2"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="19"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="2"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="R6" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="3"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="25"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
+      <c r="AH7" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="3"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R8" s="25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="2"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="19"/>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="5"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="3"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="25"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="2"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH9" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="3"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="3"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="R10" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="2"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="19"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="3"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="3"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="25"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="2"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="3"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="7"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="2"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="19"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="2"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="3"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="25"/>
-    </row>
-    <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="Q15" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="2"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="19"/>
+    </row>
+    <row r="15" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="AD15" s="25"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH15" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+    </row>
+    <row r="17" spans="12:24" x14ac:dyDescent="0.3">
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+    </row>
+    <row r="18" spans="12:24" x14ac:dyDescent="0.3">
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+    </row>
+    <row r="19" spans="12:24" x14ac:dyDescent="0.3">
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Project/Data/LevelDesign.xlsx
+++ b/Project/Data/LevelDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArkHarKharon\source\repos\ArkHarKharon\Upgrade\Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3440514-7F23-4624-AC77-5FC64653DE6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF792B3-5FA4-4D3C-A05E-3A17947E6E5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12648" yWindow="1632" windowWidth="17280" windowHeight="8964" xr2:uid="{2F51BC1A-11F1-499A-9A02-381ED3FCEAC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F51BC1A-11F1-499A-9A02-381ED3FCEAC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -159,24 +159,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -295,60 +277,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -665,20 +641,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0A7EAE-0DB8-4E97-89D5-5FB3CDA6C6F3}">
   <dimension ref="B1:AH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:N8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.77734375" customWidth="1"/>
     <col min="2" max="19" width="2.77734375" customWidth="1"/>
-    <col min="32" max="32" width="3.21875" customWidth="1"/>
+    <col min="32" max="32" width="6" customWidth="1"/>
     <col min="33" max="33" width="27.44140625" customWidth="1"/>
     <col min="34" max="34" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="2" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -705,10 +691,13 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
-      <c r="C3" s="28"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -732,17 +721,15 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="2"/>
-      <c r="AF3" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG3" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH3" s="21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="3"/>
@@ -768,9 +755,9 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="2"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="22"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="19"/>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -798,12 +785,12 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="2"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="18" t="s">
-        <v>8</v>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.3">
@@ -862,12 +849,12 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="2"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="10" t="s">
-        <v>1</v>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="AH7" s="19" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.3">
@@ -926,12 +913,12 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="2"/>
-      <c r="AF9" s="14"/>
+      <c r="AF9" s="15"/>
       <c r="AG9" s="9" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AH9" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.3">
@@ -968,13 +955,13 @@
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="4"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -990,12 +977,12 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="2"/>
-      <c r="AF11" s="15"/>
+      <c r="AF11" s="16"/>
       <c r="AG11" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH11" s="19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.3">
@@ -1028,7 +1015,7 @@
       <c r="AG12" s="9"/>
       <c r="AH12" s="19"/>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
@@ -1054,12 +1041,12 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="2"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH13" s="19" t="s">
-        <v>12</v>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH13" s="20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.3">
@@ -1088,98 +1075,88 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="19"/>
-    </row>
-    <row r="15" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="AD15" s="25"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH15" s="20" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="AD15" s="21"/>
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
     </row>
     <row r="17" spans="12:24" x14ac:dyDescent="0.3">
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
     </row>
     <row r="18" spans="12:24" x14ac:dyDescent="0.3">
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
     </row>
     <row r="19" spans="12:24" x14ac:dyDescent="0.3">
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
